--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -376,7 +376,7 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A1F2A7-DE97-4F73-94FB-E48E08C13D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>lang_code</t>
   </si>
@@ -144,13 +145,28 @@
   </si>
   <si>
     <t>إثبات الاستثناء البيومتري</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Proof of Concent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proof of Concent</t>
+  </si>
+  <si>
+    <t>إثبات التركيز</t>
+  </si>
+  <si>
+    <t>Preuve de concentration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,6 +186,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,21 +522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -546,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -563,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -580,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -597,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -614,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -631,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -648,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -665,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -682,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -699,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -716,7 +740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -733,7 +757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -750,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -767,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -781,6 +805,57 @@
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\Chithara27-fork\MEC-PROD-Mosip-data excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FD4354-C9DA-43D2-B044-8CA69BB6C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>lang_code</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Address Proof</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
     <t>Proof of Relationship</t>
   </si>
   <si>
-    <t>Proof Relationship of the person</t>
-  </si>
-  <si>
     <t>Preuve de relation</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>Proof date of birth of the person</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>Preuve de naissance</t>
   </si>
   <si>
@@ -119,37 +111,88 @@
     <t>Preuve dexception biométrique</t>
   </si>
   <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>إثبات العنوان</t>
-  </si>
-  <si>
-    <t>إثبات هوية</t>
-  </si>
-  <si>
-    <t>إثبات الهوية</t>
-  </si>
-  <si>
-    <t>إثبات العلاقة</t>
-  </si>
-  <si>
-    <t>إثبات علاقة الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الميلاد</t>
-  </si>
-  <si>
-    <t>إثبات تاريخ ميلاد الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الاستثناء البيومتري</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rediet</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Resident Photo</t>
+  </si>
+  <si>
+    <t>Proof of Resident Photo</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Proof of Consent</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>पते का प्रमाण</t>
+  </si>
+  <si>
+    <t>निवास प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>सबूत की पहचान</t>
+  </si>
+  <si>
+    <t>पहचान प्रमाण</t>
+  </si>
+  <si>
+    <t>रिश्ते का सबूत</t>
+  </si>
+  <si>
+    <t>बायोमेट्रिक अपवाद का प्रमाण</t>
+  </si>
+  <si>
+    <t>जन्म का प्रमाण</t>
+  </si>
+  <si>
+    <t>व्यक्ति के जन्म की तारीख का प्रमाण</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,13 +202,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -207,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,7 +258,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -498,291 +540,564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44776.353542824072</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44776.353542824072</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44776.353542824072</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6">
+        <v>44806.261097800925</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44791.532225787036</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6">
+        <v>44811.273557800923</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1103</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44811.720782233795</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6">
+        <v>44831.390298877312</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44776.353542824072</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="6">
+        <v>44853.275404004627</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44960.360941087965</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6">
+        <v>44960.360941087965</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44960.360941087965</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>44960.360941087965</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45005.567295624998</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45005.567295624998</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45005.567295624998</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45005.567295624998</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6">
+        <v>44776.353542824072</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="6">
+        <v>44960.360941087965</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45005.567295624998</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F14A25-94E9-472C-9D53-A16093BA33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>lang_code</t>
   </si>
@@ -56,101 +57,29 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Un justificatif de domicile</t>
-  </si>
-  <si>
-    <t>Preuve dadresse</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>Proof of Identity</t>
-  </si>
-  <si>
-    <t>Identity Proof</t>
-  </si>
-  <si>
-    <t>Preuve didentité</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
     <t>Proof of Relationship</t>
   </si>
   <si>
-    <t>Proof Relationship of the person</t>
-  </si>
-  <si>
-    <t>Preuve de relation</t>
-  </si>
-  <si>
-    <t>Preuve de relation de la personne</t>
-  </si>
-  <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>Proof of Birth</t>
-  </si>
-  <si>
-    <t>Proof date of birth of the person</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Preuve de naissance</t>
-  </si>
-  <si>
-    <t>Preuve de la date de naissance de la personne</t>
-  </si>
-  <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>Proof of Biometric Exception</t>
-  </si>
-  <si>
-    <t>Preuve dexception biométrique</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>إثبات العنوان</t>
-  </si>
-  <si>
-    <t>إثبات هوية</t>
-  </si>
-  <si>
-    <t>إثبات الهوية</t>
-  </si>
-  <si>
-    <t>إثبات العلاقة</t>
-  </si>
-  <si>
-    <t>إثبات علاقة الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الميلاد</t>
-  </si>
-  <si>
-    <t>إثبات تاريخ ميلاد الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الاستثناء البيومتري</t>
+    <t>पते का प्रमाण</t>
+  </si>
+  <si>
+    <t>निवास प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>रिश्ते का सबूत</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +98,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -207,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,9 +151,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,21 +432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,260 +464,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F14A25-94E9-472C-9D53-A16093BA33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>lang_code</t>
   </si>
@@ -54,7 +56,13 @@
     <t>Address Proof</t>
   </si>
   <si>
-    <t>TRUE</t>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>Proof of Identity</t>
+  </si>
+  <si>
+    <t>Identity Proof</t>
   </si>
   <si>
     <t>POR</t>
@@ -63,28 +71,81 @@
     <t>Proof of Relationship</t>
   </si>
   <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Proof of Consent</t>
+  </si>
+  <si>
+    <t>POE</t>
+  </si>
+  <si>
+    <t>Proof of Biometric Exception</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
     <t>पते का प्रमाण</t>
   </si>
   <si>
     <t>निवास प्रमाण पत्र</t>
   </si>
   <si>
-    <t>hin</t>
+    <t>सबूत की पहचान</t>
+  </si>
+  <si>
+    <t>पहचान प्रमाण</t>
   </si>
   <si>
     <t>रिश्ते का सबूत</t>
+  </si>
+  <si>
+    <t>बायोमेट्रिक अपवाद का प्रमाण</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>Proof of Birth</t>
+  </si>
+  <si>
+    <t>Proof date of birth of the person</t>
+  </si>
+  <si>
+    <t>जन्म का प्रमाण</t>
+  </si>
+  <si>
+    <t>व्यक्ति के जन्म की तारीख का प्रमाण</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Resident Photo</t>
+  </si>
+  <si>
+    <t>Proof of Resident Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -94,28 +155,352 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,11 +523,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,20 +778,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -213,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -248,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,32 +1094,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.45454545454546" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="17.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="41.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="38.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="17.8181818181818" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,79 +1132,213 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="4"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
+    <workbookView windowWidth="21216" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data-1713953282198" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,35 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>POA</t>
+  </si>
+  <si>
+    <t>Proof of Address</t>
+  </si>
+  <si>
+    <t>Address Proof</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>POA</t>
-  </si>
-  <si>
-    <t>Proof of Address</t>
-  </si>
-  <si>
-    <t>Address Proof</t>
-  </si>
-  <si>
     <t>POI</t>
   </si>
   <si>
@@ -83,15 +83,15 @@
     <t>Proof of Biometric Exception</t>
   </si>
   <si>
+    <t>पते का प्रमाण</t>
+  </si>
+  <si>
+    <t>निवास प्रमाण पत्र</t>
+  </si>
+  <si>
     <t>hin</t>
   </si>
   <si>
-    <t>पते का प्रमाण</t>
-  </si>
-  <si>
-    <t>निवास प्रमाण पत्र</t>
-  </si>
-  <si>
     <t>सबूत की पहचान</t>
   </si>
   <si>
@@ -119,6 +119,21 @@
     <t>व्यक्ति के जन्म की तारीख का प्रमाण</t>
   </si>
   <si>
+    <t>DocTestCode321</t>
+  </si>
+  <si>
+    <t>दॊच्चत्</t>
+  </si>
+  <si>
+    <t>दॊच्तॆस्त्चॊदॆ३२१ उप्दतॆद्</t>
+  </si>
+  <si>
+    <t>DocTestCode123</t>
+  </si>
+  <si>
+    <t>तॆस्तिन्ग् पॊसितिवॆ दॊच् उप्दतॆद्</t>
+  </si>
+  <si>
     <t>POP</t>
   </si>
   <si>
@@ -128,7 +143,13 @@
     <t>Proof of Resident Photo</t>
   </si>
   <si>
-    <t xml:space="preserve">                 TRUE</t>
+    <t>POF</t>
+  </si>
+  <si>
+    <t>Proof Of Foreigner</t>
+  </si>
+  <si>
+    <t>Proof of Foreigner Identity</t>
   </si>
 </sst>
 </file>
@@ -141,19 +162,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,27 +509,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,20 +617,31 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,140 +650,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,7 +821,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -843,7 +1045,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -888,9 +1090,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -923,9 +1125,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1100,245 +1302,288 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45454545454546" defaultRowHeight="14.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9.81818181818182" customWidth="1"/>
-    <col min="2" max="2" width="17.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="41.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="38.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="17.8181818181818" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="b">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="b">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9084"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="data-1713953282198" sheetId="1" r:id="rId1"/>
+    <sheet name="doc_category" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>code</t>
   </si>
@@ -71,85 +71,163 @@
     <t>Proof of Relationship</t>
   </si>
   <si>
+    <t>पते का प्रमाण</t>
+  </si>
+  <si>
+    <t>निवास प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>सबूत की पहचान</t>
+  </si>
+  <si>
+    <t>पहचान प्रमाण</t>
+  </si>
+  <si>
+    <t>रिश्ते का सबूत</t>
+  </si>
+  <si>
+    <t>DocTestCode321</t>
+  </si>
+  <si>
+    <t>दॊच्चत्</t>
+  </si>
+  <si>
+    <t>दॊच्तॆस्त्चॊदॆ३२१ उप्दतॆद्</t>
+  </si>
+  <si>
+    <t>DocTestCode123</t>
+  </si>
+  <si>
+    <t>तॆस्तिन्ग् पॊसितिवॆ दॊच् उप्दतॆद्</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Resident Photo</t>
+  </si>
+  <si>
+    <t>Proof of Resident Photo</t>
+  </si>
+  <si>
+    <t>POE</t>
+  </si>
+  <si>
+    <t>बायोमेट्रिक अपवाद का प्रमाण</t>
+  </si>
+  <si>
+    <t>Proof of Biometric Exception</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>Proof of Birth</t>
+  </si>
+  <si>
+    <t>Proof date of birth of the person</t>
+  </si>
+  <si>
+    <t>जन्म का प्रमाण</t>
+  </si>
+  <si>
+    <t>व्यक्ति के जन्म की तारीख का प्रमाण</t>
+  </si>
+  <si>
+    <t>POF</t>
+  </si>
+  <si>
+    <t>Proof Of Foreigner</t>
+  </si>
+  <si>
+    <t>Proof of Foreigner Identity</t>
+  </si>
+  <si>
     <t>POC</t>
   </si>
   <si>
     <t>Proof of Consent</t>
   </si>
   <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>Proof of Biometric Exception</t>
-  </si>
-  <si>
-    <t>पते का प्रमाण</t>
-  </si>
-  <si>
-    <t>निवास प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>सबूत की पहचान</t>
-  </si>
-  <si>
-    <t>पहचान प्रमाण</t>
-  </si>
-  <si>
-    <t>रिश्ते का सबूत</t>
-  </si>
-  <si>
-    <t>बायोमेट्रिक अपवाद का प्रमाण</t>
-  </si>
-  <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>Proof of Birth</t>
-  </si>
-  <si>
-    <t>Proof date of birth of the person</t>
-  </si>
-  <si>
-    <t>जन्म का प्रमाण</t>
-  </si>
-  <si>
-    <t>व्यक्ति के जन्म की तारीख का प्रमाण</t>
-  </si>
-  <si>
-    <t>DocTestCode321</t>
-  </si>
-  <si>
-    <t>दॊच्चत्</t>
-  </si>
-  <si>
-    <t>दॊच्तॆस्त्चॊदॆ३२१ उप्दतॆद्</t>
-  </si>
-  <si>
-    <t>DocTestCode123</t>
-  </si>
-  <si>
-    <t>तॆस्तिन्ग् पॊसितिवॆ दॊच् उप्दतॆद्</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>Resident Photo</t>
-  </si>
-  <si>
-    <t>Proof of Resident Photo</t>
-  </si>
-  <si>
-    <t>POF</t>
-  </si>
-  <si>
-    <t>Proof Of Foreigner</t>
-  </si>
-  <si>
-    <t>Proof of Foreigner Identity</t>
+    <t>Comprobante de domicilio</t>
+  </si>
+  <si>
+    <t>Comprobante de dirección</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>Documentos de identidad</t>
+  </si>
+  <si>
+    <t>Prueba de identidad</t>
+  </si>
+  <si>
+    <t>Prueba de relación</t>
+  </si>
+  <si>
+    <t>Prueba de consentimiento</t>
+  </si>
+  <si>
+    <t>Prueba de excepción biométrica</t>
+  </si>
+  <si>
+    <t>Prueba de nacimiento</t>
+  </si>
+  <si>
+    <t>Prueba de fecha de nacimiento del persona</t>
+  </si>
+  <si>
+    <t>Foto residente</t>
+  </si>
+  <si>
+    <t>Foto de prueba de residente</t>
+  </si>
+  <si>
+    <t>Prueba de extranjero</t>
+  </si>
+  <si>
+    <t>Prueba de Identidad de Extranjero</t>
+  </si>
+  <si>
+    <t>Preuve d'adresse</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Preuve d'identité</t>
+  </si>
+  <si>
+    <t>Preuve de relation</t>
+  </si>
+  <si>
+    <t>Preuve de consentement</t>
+  </si>
+  <si>
+    <t>Preuve d'exception biométrique</t>
+  </si>
+  <si>
+    <t>Preuve de naissance</t>
+  </si>
+  <si>
+    <t>Preuve de la date de naissance de la personne</t>
+  </si>
+  <si>
+    <t>Photo du résident</t>
+  </si>
+  <si>
+    <t>Preuve de photo de résidence</t>
+  </si>
+  <si>
+    <t>Preuve d'étranger</t>
+  </si>
+  <si>
+    <t>Preuve d'identité étrangère</t>
   </si>
 </sst>
 </file>
@@ -765,8 +843,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,13 +1386,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="31.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="39.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1327,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1343,8 +1432,10 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1360,8 +1451,10 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1377,61 +1470,69 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1440,123 +1541,147 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="1"/>
+      <c r="H10"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11"/>
+      <c r="G11" s="1"/>
+      <c r="H11"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12"/>
+      <c r="G12" s="1"/>
+      <c r="H12"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13"/>
+      <c r="G13" s="1"/>
+      <c r="H13"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14"/>
+      <c r="G14" s="1"/>
+      <c r="H14"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1564,13 +1689,17 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15"/>
+      <c r="G15" s="1"/>
+      <c r="H15"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -1579,6 +1708,282 @@
         <v>8</v>
       </c>
       <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" s="1"/>
+      <c r="H16"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\Civ_master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EACD57-0DAC-4330-AD28-ADB782076C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>lang_code</t>
   </si>
@@ -41,116 +37,83 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>POA</t>
   </si>
   <si>
-    <t>Proof of Address</t>
-  </si>
-  <si>
-    <t>Address Proof</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>POE</t>
+  </si>
+  <si>
     <t>fra</t>
   </si>
   <si>
-    <t>Un justificatif de domicile</t>
-  </si>
-  <si>
     <t>Preuve dadresse</t>
   </si>
   <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>Proof of Identity</t>
-  </si>
-  <si>
-    <t>Identity Proof</t>
-  </si>
-  <si>
     <t>Preuve didentité</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Proof of Relationship</t>
-  </si>
-  <si>
-    <t>Proof Relationship of the person</t>
-  </si>
-  <si>
     <t>Preuve de relation</t>
   </si>
   <si>
     <t>Preuve de relation de la personne</t>
   </si>
   <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>Proof of Birth</t>
-  </si>
-  <si>
-    <t>Proof date of birth of the person</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>Preuve de naissance</t>
   </si>
   <si>
     <t>Preuve de la date de naissance de la personne</t>
   </si>
   <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>Proof of Biometric Exception</t>
-  </si>
-  <si>
     <t>Preuve dexception biométrique</t>
   </si>
   <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>إثبات العنوان</t>
-  </si>
-  <si>
-    <t>إثبات هوية</t>
-  </si>
-  <si>
-    <t>إثبات الهوية</t>
-  </si>
-  <si>
-    <t>إثبات العلاقة</t>
-  </si>
-  <si>
-    <t>إثبات علاقة الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الميلاد</t>
-  </si>
-  <si>
-    <t>إثبات تاريخ ميلاد الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الاستثناء البيومتري</t>
+    <t>Justificatif de domicile</t>
+  </si>
+  <si>
+    <t>POM</t>
+  </si>
+  <si>
+    <t>Preuve d'enrollement CNAM</t>
+  </si>
+  <si>
+    <t>Preuve d'identification CNAM</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Preuve de compte bancaire</t>
+  </si>
+  <si>
+    <t>Preuve de compte banCaire</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Proof of consent</t>
+  </si>
+  <si>
+    <t>Preuve de concentement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,12 +125,16 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -207,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,9 +183,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,21 +468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,260 +499,142 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\Civ_master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EACD57-0DAC-4330-AD28-ADB782076C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C676B22-A53C-4E76-93DD-E084CCA2EA89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>lang_code</t>
   </si>
@@ -37,9 +37,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>POA</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -49,18 +46,12 @@
     <t>POR</t>
   </si>
   <si>
-    <t>POB</t>
-  </si>
-  <si>
     <t>POE</t>
   </si>
   <si>
     <t>fra</t>
   </si>
   <si>
-    <t>Preuve dadresse</t>
-  </si>
-  <si>
     <t>Preuve didentité</t>
   </si>
   <si>
@@ -70,18 +61,9 @@
     <t>Preuve de relation de la personne</t>
   </si>
   <si>
-    <t>Preuve de naissance</t>
-  </si>
-  <si>
-    <t>Preuve de la date de naissance de la personne</t>
-  </si>
-  <si>
     <t>Preuve dexception biométrique</t>
   </si>
   <si>
-    <t>Justificatif de domicile</t>
-  </si>
-  <si>
     <t>POM</t>
   </si>
   <si>
@@ -89,31 +71,13 @@
   </si>
   <si>
     <t>Preuve d'identification CNAM</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
-    <t>Preuve de compte bancaire</t>
-  </si>
-  <si>
-    <t>Preuve de compte banCaire</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Proof of consent</t>
-  </si>
-  <si>
-    <t>Preuve de concentement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,11 +96,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,10 +144,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="41.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,142 +454,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
